--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1378.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1378.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.263870797254661</v>
+        <v>1.216628313064575</v>
       </c>
       <c r="B1">
-        <v>2.537249212136486</v>
+        <v>2.456719398498535</v>
       </c>
       <c r="C1">
-        <v>3.38366987209366</v>
+        <v>7.294825077056885</v>
       </c>
       <c r="D1">
-        <v>3.20212812693333</v>
+        <v>2.254568338394165</v>
       </c>
       <c r="E1">
-        <v>1.097076127888888</v>
+        <v>1.162895202636719</v>
       </c>
     </row>
   </sheetData>
